--- a/Andrew-annotations/AXGN_Q2_2018.xlsx
+++ b/Andrew-annotations/AXGN_Q2_2018.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\Desktop\School\College\Fall 2023\VIP 3602\SubjECTive-QA\Andrew-annotations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1949CCED-19DA-40EA-BF9B-089D7E695EAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93877BEB-0197-4D5E-9FDE-D19DC1F5D358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -499,8 +499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -566,7 +566,7 @@
         <v>2</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>2</v>
@@ -624,13 +624,13 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>2</v>
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5">
         <v>2</v>
@@ -685,16 +685,16 @@
         <v>2</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <v>2</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>2</v>
@@ -726,7 +726,7 @@
         <v>2</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>2</v>
@@ -749,7 +749,7 @@
         <v>2</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -781,7 +781,7 @@
         <v>2</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10">
         <v>2</v>
